--- a/RxJava/commit.xlsx
+++ b/RxJava/commit.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasqu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\progetti\EvoProject\RxJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE950F8A-213A-4239-A473-D783D21FD153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41F097-E521-4178-9A85-C73254EFD3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commit" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">commit!$A$1:$A$3196</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -19675,7 +19678,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -20511,12 +20514,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2239" workbookViewId="0">
+      <selection activeCell="H2249" sqref="H2249"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
